--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titou\PycharmProjects\GraphProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titouan\PycharmProjects\GraphProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBB46F0-0BBF-49FD-89CB-3181148A33D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FB13A6-2E36-43E6-A5D2-5EC359DB7EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sc-1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Capacity</t>
   </si>
@@ -50,16 +50,31 @@
   </si>
   <si>
     <t>Schools</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,10 +177,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,35 +465,35 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
@@ -494,11 +509,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
@@ -514,11 +529,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -534,11 +549,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3">
@@ -565,14 +580,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62298D87-AF84-4AB9-ABED-45B9C3792C32}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>